--- a/External Files/Prioriteringsschema.xlsx
+++ b/External Files/Prioriteringsschema.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
   <si>
     <t xml:space="preserve">Scenario: </t>
   </si>
@@ -85,18 +85,9 @@
     <t>site</t>
   </si>
   <si>
-    <t>Page: Min sida</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Linnéstudenterna</t>
-  </si>
-  <si>
-    <t>Studenträddarna</t>
-  </si>
-  <si>
     <t>imageSize</t>
   </si>
   <si>
@@ -164,6 +155,18 @@
   </si>
   <si>
     <t>Slutför köp länk</t>
+  </si>
+  <si>
+    <t>Sweet Bikini Life</t>
+  </si>
+  <si>
+    <t>Twowolvesswimwear</t>
+  </si>
+  <si>
+    <t>Page: Cart</t>
+  </si>
+  <si>
+    <t>Page: Log in</t>
   </si>
 </sst>
 </file>
@@ -607,6 +610,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2562</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>155440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA470D34-4C66-4EC6-9254-8C5DF1D12430}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="920750"/>
+          <a:ext cx="4904762" cy="1076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -920,22 +972,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -953,33 +1005,33 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -992,17 +1044,17 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -1076,7 +1128,7 @@
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="21"/>
       <c r="B38" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -1102,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7834CAC6-2B63-47F7-90EA-F6CACB1F1ACB}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1124,7 +1176,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
       <c r="F1" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -1170,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G3" s="36" t="s">
         <v>16</v>
@@ -1210,7 +1262,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>12</v>
@@ -1222,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G5" s="39" t="s">
         <v>13</v>
@@ -1236,7 +1288,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>12</v>
@@ -1248,7 +1300,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G6" s="42" t="s">
         <v>16</v>
@@ -1274,7 +1326,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>12</v>
@@ -1288,7 +1340,7 @@
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="32" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>13</v>
@@ -1310,6 +1362,85 @@
       </c>
       <c r="I8" s="28">
         <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="31">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1322,7 +1453,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1334,73 +1465,74 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>2046759</v>
       </c>
       <c r="C2">
-        <v>1489696</v>
+        <v>258</v>
       </c>
       <c r="D2" s="17">
         <f>1-C2/B2</f>
-        <v>0.27216834028823134</v>
+        <v>0.99987394705483157</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>1096513</v>
       </c>
       <c r="C3">
-        <v>41195</v>
+        <v>3044</v>
       </c>
       <c r="D3" s="17">
         <f t="shared" ref="D3:D5" si="0">1-C3/B3</f>
-        <v>0.96243090597193104</v>
+        <v>0.99722392712170305</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>4277416</v>
       </c>
       <c r="C4">
-        <v>1671725</v>
+        <v>2445021</v>
       </c>
       <c r="D4" s="17">
         <f t="shared" si="0"/>
-        <v>0.60917409015162427</v>
+        <v>0.42838830733321243</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>101781</v>
       </c>
       <c r="C5">
-        <v>7609</v>
+        <v>42979</v>
       </c>
       <c r="D5" s="17">
         <f t="shared" si="0"/>
-        <v>0.92524144977942835</v>
+        <v>0.57773061769878464</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>